--- a/xebia_elasticdata/src/main/resources/NBA.xlsx
+++ b/xebia_elasticdata/src/main/resources/NBA.xlsx
@@ -169,7 +169,7 @@
     <t xml:space="preserve">FD01</t>
   </si>
   <si>
-    <t xml:space="preserve">Sell</t>
+    <t xml:space="preserve">X-Sell</t>
   </si>
   <si>
     <t xml:space="preserve">FD637</t>
@@ -340,7 +340,7 @@
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="#"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -368,11 +368,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -451,7 +446,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -481,10 +476,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -612,51 +603,51 @@
   </sheetPr>
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J41" activeCellId="0" sqref="J41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z10" activeCellId="0" sqref="Z10:Z13 Z31:Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.6632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="94.4948979591837"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="70.4642857142857"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.1581632653061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.6224489795918"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.2551020408163"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="29.5612244897959"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="42.3877551020408"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="26.5918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="93.4132653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="69.6581632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.219387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="40.5"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="29.1581632653061"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="41.8469387755102"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="26.1887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="9.17857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -776,7 +767,7 @@
       <c r="AL1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AM1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AN1" s="1" t="s">
@@ -900,7 +891,7 @@
       <c r="AL2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AN2" s="1" t="s">
@@ -1024,7 +1015,7 @@
       <c r="AL3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM3" s="8" t="s">
+      <c r="AM3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AN3" s="1" t="s">
@@ -1148,7 +1139,7 @@
       <c r="AL4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM4" s="8" t="s">
+      <c r="AM4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AN4" s="1" t="s">
@@ -1272,7 +1263,7 @@
       <c r="AL5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AM5" s="8" t="s">
+      <c r="AM5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AN5" s="1" t="s">
@@ -1280,19 +1271,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="9" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="C6" s="10" t="n">
+      <c r="B6" s="8" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="C6" s="9" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="10" t="n">
         <v>43448</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1304,16 +1295,16 @@
       <c r="H6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="9" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="J6" s="12" t="n">
+      <c r="I6" s="8" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="J6" s="11" t="n">
         <v>128</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="9" t="s">
+      <c r="K6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -1322,16 +1313,16 @@
       <c r="N6" s="6" t="n">
         <v>996264849</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="9" t="n">
+      <c r="P6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="S6" s="3" t="n">
@@ -1344,23 +1335,23 @@
       <c r="U6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="9" t="n">
+      <c r="V6" s="8" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AB6" s="7" t="n">
@@ -1372,51 +1363,51 @@
       <c r="AD6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE6" s="9" t="s">
+      <c r="AE6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AF6" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG6" s="9" t="s">
+      <c r="AG6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK6" s="9" t="s">
+      <c r="AH6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AL6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN6" s="9" t="s">
+      <c r="AM6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="9" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="C7" s="10" t="n">
+      <c r="B7" s="8" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="C7" s="9" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="10" t="n">
         <v>43448</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1428,16 +1419,16 @@
       <c r="H7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="9" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="J7" s="12" t="n">
+      <c r="I7" s="8" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="J7" s="11" t="n">
         <v>129</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="9" t="s">
+      <c r="K7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -1446,16 +1437,16 @@
       <c r="N7" s="6" t="n">
         <v>996264849</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="9" t="n">
+      <c r="P7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="S7" s="3" t="n">
@@ -1468,23 +1459,23 @@
       <c r="U7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="9" t="n">
+      <c r="V7" s="8" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="X7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Y7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Z7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="AA7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AB7" s="7" t="n">
@@ -1496,51 +1487,51 @@
       <c r="AD7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE7" s="9" t="s">
+      <c r="AE7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AF7" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG7" s="9" t="s">
+      <c r="AG7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK7" s="9" t="s">
+      <c r="AH7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AL7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN7" s="9" t="s">
+      <c r="AM7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="9" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="C8" s="10" t="n">
+      <c r="B8" s="8" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="C8" s="9" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="10" t="n">
         <v>43448</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1552,16 +1543,16 @@
       <c r="H8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="9" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="J8" s="12" t="n">
+      <c r="I8" s="8" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="J8" s="11" t="n">
         <v>130</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="9" t="s">
+      <c r="K8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -1570,16 +1561,16 @@
       <c r="N8" s="6" t="n">
         <v>996264849</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="9" t="n">
+      <c r="P8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="S8" s="3" t="n">
@@ -1592,23 +1583,23 @@
       <c r="U8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="9" t="n">
+      <c r="V8" s="8" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X8" s="9" t="s">
+      <c r="X8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Y8" s="9" t="s">
+      <c r="Y8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA8" s="9" t="s">
+      <c r="AA8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AB8" s="7" t="n">
@@ -1620,51 +1611,51 @@
       <c r="AD8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE8" s="9" t="s">
+      <c r="AE8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AF8" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG8" s="9" t="s">
+      <c r="AG8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK8" s="9" t="s">
+      <c r="AH8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AL8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN8" s="9" t="s">
+      <c r="AM8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="9" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="C9" s="10" t="n">
+      <c r="B9" s="8" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="C9" s="9" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="10" t="n">
         <v>43448</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1676,16 +1667,16 @@
       <c r="H9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="9" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="J9" s="12" t="n">
+      <c r="I9" s="8" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="J9" s="11" t="n">
         <v>131</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="9" t="s">
+      <c r="K9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -1694,16 +1685,16 @@
       <c r="N9" s="6" t="n">
         <v>996264849</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="9" t="n">
+      <c r="P9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="S9" s="3" t="n">
@@ -1716,23 +1707,23 @@
       <c r="U9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="9" t="n">
+      <c r="V9" s="8" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="X9" s="9" t="s">
+      <c r="X9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Y9" s="9" t="s">
+      <c r="Y9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA9" s="9" t="s">
+      <c r="AA9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AB9" s="7" t="n">
@@ -1744,51 +1735,51 @@
       <c r="AD9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE9" s="9" t="s">
+      <c r="AE9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AF9" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG9" s="9" t="s">
+      <c r="AG9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK9" s="9" t="s">
+      <c r="AH9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AL9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN9" s="9" t="s">
+      <c r="AM9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN9" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="C10" s="14" t="n">
+      <c r="B10" s="12" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="C10" s="13" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="14" t="n">
         <v>43448</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1800,16 +1791,16 @@
       <c r="H10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="13" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="J10" s="16" t="n">
+      <c r="I10" s="12" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="J10" s="15" t="n">
         <v>132</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="13" t="s">
+      <c r="K10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -1818,16 +1809,16 @@
       <c r="N10" s="6" t="n">
         <v>996264849</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="13" t="n">
+      <c r="P10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="12" t="n">
         <v>107</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="R10" s="12" t="s">
         <v>6</v>
       </c>
       <c r="S10" s="3" t="n">
@@ -1840,23 +1831,23 @@
       <c r="U10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="V10" s="13" t="n">
+      <c r="V10" s="12" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X10" s="13" t="s">
+      <c r="X10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Y10" s="13" t="s">
+      <c r="Y10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AA10" s="13" t="s">
+      <c r="AA10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="AB10" s="7" t="n">
@@ -1868,51 +1859,51 @@
       <c r="AD10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE10" s="13" t="s">
+      <c r="AE10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AF10" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG10" s="13" t="s">
+      <c r="AG10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AH10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK10" s="13" t="s">
+      <c r="AH10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK10" s="12" t="s">
         <v>16</v>
       </c>
       <c r="AL10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AM10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN10" s="13" t="s">
+      <c r="AM10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN10" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="13" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="C11" s="14" t="n">
+      <c r="B11" s="12" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="C11" s="13" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E11" s="14" t="n">
         <v>43448</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1924,16 +1915,16 @@
       <c r="H11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="13" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="J11" s="16" t="n">
+      <c r="I11" s="12" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="J11" s="15" t="n">
         <v>133</v>
       </c>
-      <c r="K11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="13" t="s">
+      <c r="K11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>3</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -1942,16 +1933,16 @@
       <c r="N11" s="6" t="n">
         <v>996264849</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="13" t="n">
+      <c r="P11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="12" t="n">
         <v>107</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="12" t="s">
         <v>6</v>
       </c>
       <c r="S11" s="3" t="n">
@@ -1964,23 +1955,23 @@
       <c r="U11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="V11" s="13" t="n">
+      <c r="V11" s="12" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X11" s="13" t="s">
+      <c r="X11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Y11" s="13" t="s">
+      <c r="Y11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AA11" s="13" t="s">
+      <c r="AA11" s="12" t="s">
         <v>12</v>
       </c>
       <c r="AB11" s="7" t="n">
@@ -1992,51 +1983,51 @@
       <c r="AD11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE11" s="13" t="s">
+      <c r="AE11" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AF11" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG11" s="13" t="s">
+      <c r="AG11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AH11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK11" s="13" t="s">
+      <c r="AH11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="AL11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN11" s="13" t="s">
+      <c r="AM11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN11" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="13" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="C12" s="14" t="n">
+      <c r="B12" s="12" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="C12" s="13" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="15" t="n">
+      <c r="E12" s="14" t="n">
         <v>43448</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -2048,16 +2039,16 @@
       <c r="H12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="13" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="J12" s="16" t="n">
+      <c r="I12" s="12" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="J12" s="15" t="n">
         <v>134</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="13" t="s">
+      <c r="K12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="12" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -2066,16 +2057,16 @@
       <c r="N12" s="6" t="n">
         <v>996264849</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="13" t="n">
+      <c r="P12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="12" t="n">
         <v>107</v>
       </c>
-      <c r="R12" s="13" t="s">
+      <c r="R12" s="12" t="s">
         <v>6</v>
       </c>
       <c r="S12" s="3" t="n">
@@ -2088,23 +2079,23 @@
       <c r="U12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="V12" s="13" t="n">
+      <c r="V12" s="12" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X12" s="13" t="s">
+      <c r="X12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Y12" s="13" t="s">
+      <c r="Y12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AA12" s="13" t="s">
+      <c r="AA12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="AB12" s="7" t="n">
@@ -2116,51 +2107,51 @@
       <c r="AD12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE12" s="13" t="s">
+      <c r="AE12" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AF12" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG12" s="13" t="s">
+      <c r="AG12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AH12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK12" s="13" t="s">
+      <c r="AH12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="AL12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN12" s="13" t="s">
+      <c r="AM12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN12" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="13" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="C13" s="14" t="n">
+      <c r="B13" s="12" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="C13" s="13" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="14" t="n">
         <v>43448</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -2172,16 +2163,16 @@
       <c r="H13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="13" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="J13" s="16" t="n">
+      <c r="I13" s="12" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="J13" s="15" t="n">
         <v>135</v>
       </c>
-      <c r="K13" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="13" t="s">
+      <c r="K13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>3</v>
       </c>
       <c r="M13" s="3" t="s">
@@ -2190,16 +2181,16 @@
       <c r="N13" s="6" t="n">
         <v>996264849</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="13" t="n">
+      <c r="P13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="12" t="n">
         <v>107</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="R13" s="12" t="s">
         <v>6</v>
       </c>
       <c r="S13" s="3" t="n">
@@ -2212,23 +2203,23 @@
       <c r="U13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="V13" s="13" t="n">
+      <c r="V13" s="12" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X13" s="13" t="s">
+      <c r="X13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Y13" s="13" t="s">
+      <c r="Y13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="Z13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AA13" s="13" t="s">
+      <c r="AA13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="AB13" s="7" t="n">
@@ -2240,51 +2231,51 @@
       <c r="AD13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE13" s="13" t="s">
+      <c r="AE13" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AF13" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG13" s="13" t="s">
+      <c r="AG13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AH13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK13" s="13" t="s">
+      <c r="AH13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="AL13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN13" s="13" t="s">
+      <c r="AM13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN13" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="9" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="C14" s="10" t="n">
+      <c r="B14" s="8" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="C14" s="9" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E14" s="10" t="n">
         <v>43448</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -2296,16 +2287,16 @@
       <c r="H14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="9" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="J14" s="12" t="n">
+      <c r="I14" s="8" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="J14" s="11" t="n">
         <v>136</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="9" t="s">
+      <c r="K14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -2314,16 +2305,16 @@
       <c r="N14" s="6" t="n">
         <v>996264849</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="9" t="n">
+      <c r="P14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="S14" s="3" t="n">
@@ -2336,23 +2327,23 @@
       <c r="U14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="V14" s="9" t="n">
+      <c r="V14" s="8" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X14" s="9" t="s">
+      <c r="X14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Y14" s="9" t="s">
+      <c r="Y14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA14" s="9" t="s">
+      <c r="AA14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AB14" s="7" t="n">
@@ -2364,51 +2355,51 @@
       <c r="AD14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE14" s="9" t="s">
+      <c r="AE14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AF14" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG14" s="9" t="s">
+      <c r="AG14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK14" s="9" t="s">
+      <c r="AH14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AL14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN14" s="9" t="s">
+      <c r="AM14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN14" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="9" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="C15" s="10" t="n">
+      <c r="B15" s="8" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="C15" s="9" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="10" t="n">
         <v>43448</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -2420,16 +2411,16 @@
       <c r="H15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="9" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="J15" s="12" t="n">
+      <c r="I15" s="8" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="J15" s="11" t="n">
         <v>137</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="9" t="s">
+      <c r="K15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -2438,16 +2429,16 @@
       <c r="N15" s="6" t="n">
         <v>996264849</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="9" t="n">
+      <c r="P15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="R15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="S15" s="3" t="n">
@@ -2460,23 +2451,23 @@
       <c r="U15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="V15" s="9" t="n">
+      <c r="V15" s="8" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X15" s="9" t="s">
+      <c r="X15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Y15" s="9" t="s">
+      <c r="Y15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA15" s="9" t="s">
+      <c r="AA15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AB15" s="7" t="n">
@@ -2488,51 +2479,51 @@
       <c r="AD15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE15" s="9" t="s">
+      <c r="AE15" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AF15" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG15" s="9" t="s">
+      <c r="AG15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK15" s="9" t="s">
+      <c r="AH15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AL15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AM15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN15" s="9" t="s">
+      <c r="AM15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN15" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="9" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="C16" s="10" t="n">
+      <c r="B16" s="8" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="C16" s="9" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E16" s="10" t="n">
         <v>43448</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -2544,16 +2535,16 @@
       <c r="H16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="9" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="J16" s="12" t="n">
+      <c r="I16" s="8" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="J16" s="11" t="n">
         <v>138</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="9" t="s">
+      <c r="K16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -2562,16 +2553,16 @@
       <c r="N16" s="6" t="n">
         <v>996264849</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="O16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="9" t="n">
+      <c r="P16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="R16" s="9" t="s">
+      <c r="R16" s="8" t="s">
         <v>6</v>
       </c>
       <c r="S16" s="3" t="n">
@@ -2584,23 +2575,23 @@
       <c r="U16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="V16" s="9" t="n">
+      <c r="V16" s="8" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X16" s="9" t="s">
+      <c r="X16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Y16" s="9" t="s">
+      <c r="Y16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Z16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA16" s="9" t="s">
+      <c r="AA16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AB16" s="7" t="n">
@@ -2612,51 +2603,51 @@
       <c r="AD16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE16" s="9" t="s">
+      <c r="AE16" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AF16" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG16" s="9" t="s">
+      <c r="AG16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK16" s="9" t="s">
+      <c r="AH16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AL16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN16" s="9" t="s">
+      <c r="AM16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN16" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="9" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="C17" s="10" t="n">
+      <c r="B17" s="8" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="C17" s="9" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="10" t="n">
         <v>43448</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -2668,16 +2659,16 @@
       <c r="H17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="9" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="J17" s="12" t="n">
+      <c r="I17" s="8" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="J17" s="11" t="n">
         <v>139</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="9" t="s">
+      <c r="K17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -2686,16 +2677,16 @@
       <c r="N17" s="6" t="n">
         <v>996264849</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="9" t="n">
+      <c r="P17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="R17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="S17" s="3" t="n">
@@ -2708,23 +2699,23 @@
       <c r="U17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="V17" s="9" t="n">
+      <c r="V17" s="8" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X17" s="9" t="s">
+      <c r="X17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Y17" s="9" t="s">
+      <c r="Y17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Z17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA17" s="9" t="s">
+      <c r="AA17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AB17" s="7" t="n">
@@ -2736,90 +2727,90 @@
       <c r="AD17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE17" s="9" t="s">
+      <c r="AE17" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AF17" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG17" s="9" t="s">
+      <c r="AG17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK17" s="9" t="s">
+      <c r="AH17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AL17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN17" s="9" t="s">
+      <c r="AM17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN17" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="17" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="C18" s="18" t="n">
+      <c r="B18" s="16" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="C18" s="17" t="n">
         <v>39400000000000</v>
       </c>
-      <c r="D18" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="19" t="n">
+      <c r="D18" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18" t="n">
         <v>43448</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" s="17" t="s">
+      <c r="G18" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="17" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="J18" s="12" t="n">
+      <c r="I18" s="16" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="J18" s="11" t="n">
         <v>140</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="17" t="s">
+      <c r="K18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="16" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>996264849</v>
       </c>
-      <c r="O18" s="17" t="s">
+      <c r="O18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="17" t="n">
+      <c r="P18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="16" t="n">
         <v>107</v>
       </c>
-      <c r="R18" s="17" t="s">
+      <c r="R18" s="16" t="s">
         <v>6</v>
       </c>
       <c r="S18" s="3" t="n">
@@ -2832,23 +2823,23 @@
       <c r="U18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V18" s="17" t="n">
+      <c r="V18" s="16" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="X18" s="17" t="s">
+      <c r="X18" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Y18" s="17" t="s">
+      <c r="Y18" s="16" t="s">
         <v>10</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA18" s="17" t="s">
+      <c r="AA18" s="16" t="s">
         <v>12</v>
       </c>
       <c r="AB18" s="7" t="n">
@@ -2860,90 +2851,90 @@
       <c r="AD18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE18" s="17" t="s">
+      <c r="AE18" s="16" t="s">
         <v>5</v>
       </c>
       <c r="AF18" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG18" s="17" t="s">
+      <c r="AG18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AH18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK18" s="17" t="s">
+      <c r="AH18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK18" s="16" t="s">
         <v>16</v>
       </c>
       <c r="AL18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN18" s="17" t="s">
+      <c r="AM18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN18" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="17" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="C19" s="18" t="n">
+      <c r="B19" s="16" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="C19" s="17" t="n">
         <v>39400000000000</v>
       </c>
-      <c r="D19" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="19" t="n">
+      <c r="D19" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="18" t="n">
         <v>43448</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="H19" s="17" t="s">
+      <c r="G19" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="17" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="J19" s="12" t="n">
+      <c r="I19" s="16" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="J19" s="11" t="n">
         <v>141</v>
       </c>
-      <c r="K19" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19" s="17" t="s">
+      <c r="K19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="16" t="s">
         <v>3</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>996264849</v>
       </c>
-      <c r="O19" s="17" t="s">
+      <c r="O19" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="17" t="n">
+      <c r="P19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="16" t="n">
         <v>107</v>
       </c>
-      <c r="R19" s="17" t="s">
+      <c r="R19" s="16" t="s">
         <v>6</v>
       </c>
       <c r="S19" s="3" t="n">
@@ -2956,23 +2947,23 @@
       <c r="U19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V19" s="17" t="n">
+      <c r="V19" s="16" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="X19" s="17" t="s">
+      <c r="X19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Y19" s="17" t="s">
+      <c r="Y19" s="16" t="s">
         <v>10</v>
       </c>
       <c r="Z19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA19" s="17" t="s">
+      <c r="AA19" s="16" t="s">
         <v>12</v>
       </c>
       <c r="AB19" s="7" t="n">
@@ -2984,90 +2975,90 @@
       <c r="AD19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE19" s="17" t="s">
+      <c r="AE19" s="16" t="s">
         <v>5</v>
       </c>
       <c r="AF19" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG19" s="17" t="s">
+      <c r="AG19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AH19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK19" s="17" t="s">
+      <c r="AH19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="AL19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN19" s="17" t="s">
+      <c r="AM19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN19" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="17" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="C20" s="18" t="n">
+      <c r="B20" s="16" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="C20" s="17" t="n">
         <v>39400000000000</v>
       </c>
-      <c r="D20" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18" t="n">
         <v>43448</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="17" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="J20" s="12" t="n">
+      <c r="I20" s="16" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="J20" s="11" t="n">
         <v>142</v>
       </c>
-      <c r="K20" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="17" t="s">
+      <c r="K20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="16" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>996264849</v>
       </c>
-      <c r="O20" s="17" t="s">
+      <c r="O20" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="17" t="n">
+      <c r="P20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="16" t="n">
         <v>107</v>
       </c>
-      <c r="R20" s="17" t="s">
+      <c r="R20" s="16" t="s">
         <v>6</v>
       </c>
       <c r="S20" s="3" t="n">
@@ -3080,23 +3071,23 @@
       <c r="U20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V20" s="17" t="n">
+      <c r="V20" s="16" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="X20" s="17" t="s">
+      <c r="X20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Y20" s="17" t="s">
+      <c r="Y20" s="16" t="s">
         <v>10</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA20" s="17" t="s">
+      <c r="AA20" s="16" t="s">
         <v>12</v>
       </c>
       <c r="AB20" s="7" t="n">
@@ -3108,90 +3099,90 @@
       <c r="AD20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE20" s="17" t="s">
+      <c r="AE20" s="16" t="s">
         <v>5</v>
       </c>
       <c r="AF20" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG20" s="17" t="s">
+      <c r="AG20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AH20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK20" s="17" t="s">
+      <c r="AH20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK20" s="16" t="s">
         <v>16</v>
       </c>
       <c r="AL20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN20" s="17" t="s">
+      <c r="AM20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN20" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="17" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="C21" s="18" t="n">
+      <c r="B21" s="16" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="C21" s="17" t="n">
         <v>39400000000000</v>
       </c>
-      <c r="D21" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18" t="n">
         <v>43448</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="17" t="n">
+      <c r="G21" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="17" t="n">
-        <v>996264849</v>
-      </c>
-      <c r="J21" s="12" t="n">
+      <c r="I21" s="16" t="n">
+        <v>996264849</v>
+      </c>
+      <c r="J21" s="11" t="n">
         <v>143</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="17" t="s">
+      <c r="K21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="16" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>996264849</v>
       </c>
-      <c r="O21" s="17" t="s">
+      <c r="O21" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="17" t="n">
+      <c r="P21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="16" t="n">
         <v>107</v>
       </c>
-      <c r="R21" s="17" t="s">
+      <c r="R21" s="16" t="s">
         <v>6</v>
       </c>
       <c r="S21" s="3" t="n">
@@ -3204,23 +3195,23 @@
       <c r="U21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V21" s="17" t="n">
+      <c r="V21" s="16" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="X21" s="17" t="s">
+      <c r="X21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Y21" s="17" t="s">
+      <c r="Y21" s="16" t="s">
         <v>10</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA21" s="17" t="s">
+      <c r="AA21" s="16" t="s">
         <v>12</v>
       </c>
       <c r="AB21" s="7" t="n">
@@ -3232,34 +3223,34 @@
       <c r="AD21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE21" s="17" t="s">
+      <c r="AE21" s="16" t="s">
         <v>5</v>
       </c>
       <c r="AF21" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG21" s="17" t="s">
+      <c r="AG21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AH21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK21" s="17" t="s">
+      <c r="AH21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="AL21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN21" s="17" t="s">
+      <c r="AM21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN21" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3884,19 +3875,19 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="9" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="C27" s="10" t="n">
+      <c r="B27" s="8" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="C27" s="9" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D27" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="11" t="n">
+      <c r="E27" s="10" t="n">
         <v>43448</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -3908,16 +3899,16 @@
       <c r="H27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="9" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="J27" s="12" t="n">
+      <c r="I27" s="8" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="J27" s="11" t="n">
         <v>128</v>
       </c>
-      <c r="K27" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="9" t="s">
+      <c r="K27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
@@ -3926,16 +3917,16 @@
       <c r="N27" s="6" t="n">
         <v>998003452</v>
       </c>
-      <c r="O27" s="9" t="s">
+      <c r="O27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="9" t="n">
+      <c r="P27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="R27" s="9" t="s">
+      <c r="R27" s="8" t="s">
         <v>6</v>
       </c>
       <c r="S27" s="3" t="n">
@@ -3948,23 +3939,23 @@
       <c r="U27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="9" t="n">
+      <c r="V27" s="8" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="X27" s="9" t="s">
+      <c r="X27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Y27" s="9" t="s">
+      <c r="Y27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Z27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA27" s="9" t="s">
+      <c r="AA27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AB27" s="7" t="n">
@@ -3976,25 +3967,25 @@
       <c r="AD27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE27" s="9" t="s">
+      <c r="AE27" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AF27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AG27" s="9" t="s">
+      <c r="AG27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK27" s="9" t="s">
+      <c r="AH27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK27" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AL27" s="3" t="s">
@@ -4003,24 +3994,24 @@
       <c r="AM27" s="7" t="n">
         <v>43467</v>
       </c>
-      <c r="AN27" s="9" t="s">
+      <c r="AN27" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="9" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="C28" s="10" t="n">
+      <c r="B28" s="8" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="C28" s="9" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D28" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="11" t="n">
+      <c r="E28" s="10" t="n">
         <v>43448</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -4032,16 +4023,16 @@
       <c r="H28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="9" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="J28" s="12" t="n">
+      <c r="I28" s="8" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="J28" s="11" t="n">
         <v>129</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L28" s="9" t="s">
+      <c r="K28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M28" s="3" t="s">
@@ -4050,16 +4041,16 @@
       <c r="N28" s="6" t="n">
         <v>998003452</v>
       </c>
-      <c r="O28" s="9" t="s">
+      <c r="O28" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P28" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q28" s="9" t="n">
+      <c r="P28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="R28" s="9" t="s">
+      <c r="R28" s="8" t="s">
         <v>6</v>
       </c>
       <c r="S28" s="3" t="n">
@@ -4072,23 +4063,23 @@
       <c r="U28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="9" t="n">
+      <c r="V28" s="8" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X28" s="9" t="s">
+      <c r="X28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Y28" s="9" t="s">
+      <c r="Y28" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Z28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA28" s="9" t="s">
+      <c r="AA28" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AB28" s="7" t="n">
@@ -4100,25 +4091,25 @@
       <c r="AD28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE28" s="9" t="s">
+      <c r="AE28" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AF28" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG28" s="9" t="s">
+      <c r="AG28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK28" s="9" t="s">
+      <c r="AH28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK28" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AL28" s="3" t="s">
@@ -4127,24 +4118,24 @@
       <c r="AM28" s="7" t="n">
         <v>43468</v>
       </c>
-      <c r="AN28" s="9" t="s">
+      <c r="AN28" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="9" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="C29" s="10" t="n">
+      <c r="B29" s="8" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="C29" s="9" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D29" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="11" t="n">
+      <c r="E29" s="10" t="n">
         <v>43448</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -4156,16 +4147,16 @@
       <c r="H29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="9" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="J29" s="12" t="n">
+      <c r="I29" s="8" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="J29" s="11" t="n">
         <v>130</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="9" t="s">
+      <c r="K29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M29" s="3" t="s">
@@ -4174,16 +4165,16 @@
       <c r="N29" s="6" t="n">
         <v>998003452</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="O29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="9" t="n">
+      <c r="P29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="R29" s="9" t="s">
+      <c r="R29" s="8" t="s">
         <v>6</v>
       </c>
       <c r="S29" s="3" t="n">
@@ -4196,23 +4187,23 @@
       <c r="U29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="9" t="n">
+      <c r="V29" s="8" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X29" s="9" t="s">
+      <c r="X29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Y29" s="9" t="s">
+      <c r="Y29" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA29" s="9" t="s">
+      <c r="AA29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AB29" s="7" t="n">
@@ -4224,25 +4215,25 @@
       <c r="AD29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE29" s="9" t="s">
+      <c r="AE29" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AF29" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG29" s="9" t="s">
+      <c r="AG29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK29" s="9" t="s">
+      <c r="AH29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK29" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AL29" s="3" t="s">
@@ -4251,24 +4242,24 @@
       <c r="AM29" s="7" t="n">
         <v>43469</v>
       </c>
-      <c r="AN29" s="9" t="s">
+      <c r="AN29" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="9" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="C30" s="10" t="n">
+      <c r="B30" s="8" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="C30" s="9" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="11" t="n">
+      <c r="E30" s="10" t="n">
         <v>43448</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -4280,16 +4271,16 @@
       <c r="H30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="9" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="J30" s="12" t="n">
+      <c r="I30" s="8" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="J30" s="11" t="n">
         <v>131</v>
       </c>
-      <c r="K30" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L30" s="9" t="s">
+      <c r="K30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L30" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M30" s="3" t="s">
@@ -4298,16 +4289,16 @@
       <c r="N30" s="6" t="n">
         <v>998003452</v>
       </c>
-      <c r="O30" s="9" t="s">
+      <c r="O30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P30" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q30" s="9" t="n">
+      <c r="P30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="R30" s="8" t="s">
         <v>6</v>
       </c>
       <c r="S30" s="3" t="n">
@@ -4320,23 +4311,23 @@
       <c r="U30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V30" s="9" t="n">
+      <c r="V30" s="8" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="X30" s="9" t="s">
+      <c r="X30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Y30" s="9" t="s">
+      <c r="Y30" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Z30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA30" s="9" t="s">
+      <c r="AA30" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AB30" s="7" t="n">
@@ -4348,25 +4339,25 @@
       <c r="AD30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE30" s="9" t="s">
+      <c r="AE30" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AF30" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG30" s="9" t="s">
+      <c r="AG30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK30" s="9" t="s">
+      <c r="AH30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK30" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AL30" s="3" t="s">
@@ -4375,24 +4366,24 @@
       <c r="AM30" s="7" t="n">
         <v>43470</v>
       </c>
-      <c r="AN30" s="9" t="s">
+      <c r="AN30" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="13" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="C31" s="14" t="n">
+      <c r="B31" s="12" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="C31" s="13" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D31" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E31" s="15" t="n">
+      <c r="E31" s="14" t="n">
         <v>43448</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -4404,16 +4395,16 @@
       <c r="H31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="13" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="J31" s="16" t="n">
+      <c r="I31" s="12" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="J31" s="15" t="n">
         <v>132</v>
       </c>
-      <c r="K31" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L31" s="13" t="s">
+      <c r="K31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31" s="12" t="s">
         <v>3</v>
       </c>
       <c r="M31" s="3" t="s">
@@ -4422,16 +4413,16 @@
       <c r="N31" s="6" t="n">
         <v>998003452</v>
       </c>
-      <c r="O31" s="13" t="s">
+      <c r="O31" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q31" s="13" t="n">
+      <c r="P31" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="12" t="n">
         <v>107</v>
       </c>
-      <c r="R31" s="13" t="s">
+      <c r="R31" s="12" t="s">
         <v>6</v>
       </c>
       <c r="S31" s="3" t="n">
@@ -4444,23 +4435,23 @@
       <c r="U31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="V31" s="13" t="n">
+      <c r="V31" s="12" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X31" s="13" t="s">
+      <c r="X31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Y31" s="13" t="s">
+      <c r="Y31" s="12" t="s">
         <v>10</v>
       </c>
       <c r="Z31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AA31" s="13" t="s">
+      <c r="AA31" s="12" t="s">
         <v>12</v>
       </c>
       <c r="AB31" s="7" t="n">
@@ -4472,25 +4463,25 @@
       <c r="AD31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE31" s="13" t="s">
+      <c r="AE31" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AF31" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG31" s="13" t="s">
+      <c r="AG31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AH31" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI31" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ31" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK31" s="13" t="s">
+      <c r="AH31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK31" s="12" t="s">
         <v>16</v>
       </c>
       <c r="AL31" s="3" t="s">
@@ -4499,24 +4490,24 @@
       <c r="AM31" s="7" t="n">
         <v>43467</v>
       </c>
-      <c r="AN31" s="13" t="s">
+      <c r="AN31" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="13" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="C32" s="14" t="n">
+      <c r="B32" s="12" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="C32" s="13" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D32" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E32" s="15" t="n">
+      <c r="E32" s="14" t="n">
         <v>43448</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -4528,16 +4519,16 @@
       <c r="H32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="13" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="J32" s="16" t="n">
+      <c r="I32" s="12" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="J32" s="15" t="n">
         <v>133</v>
       </c>
-      <c r="K32" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="13" t="s">
+      <c r="K32" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="12" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
@@ -4546,16 +4537,16 @@
       <c r="N32" s="6" t="n">
         <v>998003452</v>
       </c>
-      <c r="O32" s="13" t="s">
+      <c r="O32" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="13" t="n">
+      <c r="P32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="12" t="n">
         <v>107</v>
       </c>
-      <c r="R32" s="13" t="s">
+      <c r="R32" s="12" t="s">
         <v>6</v>
       </c>
       <c r="S32" s="3" t="n">
@@ -4568,23 +4559,23 @@
       <c r="U32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="V32" s="13" t="n">
+      <c r="V32" s="12" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X32" s="13" t="s">
+      <c r="X32" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Y32" s="13" t="s">
+      <c r="Y32" s="12" t="s">
         <v>10</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AA32" s="13" t="s">
+      <c r="AA32" s="12" t="s">
         <v>12</v>
       </c>
       <c r="AB32" s="7" t="n">
@@ -4596,25 +4587,25 @@
       <c r="AD32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE32" s="13" t="s">
+      <c r="AE32" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AF32" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG32" s="13" t="s">
+      <c r="AG32" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AH32" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI32" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ32" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK32" s="13" t="s">
+      <c r="AH32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK32" s="12" t="s">
         <v>16</v>
       </c>
       <c r="AL32" s="3" t="s">
@@ -4623,24 +4614,24 @@
       <c r="AM32" s="7" t="n">
         <v>43468</v>
       </c>
-      <c r="AN32" s="13" t="s">
+      <c r="AN32" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="13" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="C33" s="14" t="n">
+      <c r="B33" s="12" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="C33" s="13" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D33" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E33" s="15" t="n">
+      <c r="E33" s="14" t="n">
         <v>43448</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -4652,16 +4643,16 @@
       <c r="H33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I33" s="13" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="J33" s="16" t="n">
+      <c r="I33" s="12" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="J33" s="15" t="n">
         <v>134</v>
       </c>
-      <c r="K33" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="13" t="s">
+      <c r="K33" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="12" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
@@ -4670,16 +4661,16 @@
       <c r="N33" s="6" t="n">
         <v>998003452</v>
       </c>
-      <c r="O33" s="13" t="s">
+      <c r="O33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="13" t="n">
+      <c r="P33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="12" t="n">
         <v>107</v>
       </c>
-      <c r="R33" s="13" t="s">
+      <c r="R33" s="12" t="s">
         <v>6</v>
       </c>
       <c r="S33" s="3" t="n">
@@ -4692,23 +4683,23 @@
       <c r="U33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="V33" s="13" t="n">
+      <c r="V33" s="12" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X33" s="13" t="s">
+      <c r="X33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Y33" s="13" t="s">
+      <c r="Y33" s="12" t="s">
         <v>10</v>
       </c>
       <c r="Z33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AA33" s="13" t="s">
+      <c r="AA33" s="12" t="s">
         <v>12</v>
       </c>
       <c r="AB33" s="7" t="n">
@@ -4720,25 +4711,25 @@
       <c r="AD33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE33" s="13" t="s">
+      <c r="AE33" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AF33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AG33" s="13" t="s">
+      <c r="AG33" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AH33" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI33" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ33" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK33" s="13" t="s">
+      <c r="AH33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK33" s="12" t="s">
         <v>16</v>
       </c>
       <c r="AL33" s="3" t="s">
@@ -4747,24 +4738,24 @@
       <c r="AM33" s="7" t="n">
         <v>43469</v>
       </c>
-      <c r="AN33" s="13" t="s">
+      <c r="AN33" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="13" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="C34" s="14" t="n">
+      <c r="B34" s="12" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="C34" s="13" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D34" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E34" s="15" t="n">
+      <c r="E34" s="14" t="n">
         <v>43448</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -4776,16 +4767,16 @@
       <c r="H34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="13" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="J34" s="16" t="n">
+      <c r="I34" s="12" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="J34" s="15" t="n">
         <v>135</v>
       </c>
-      <c r="K34" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L34" s="13" t="s">
+      <c r="K34" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L34" s="12" t="s">
         <v>3</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -4794,16 +4785,16 @@
       <c r="N34" s="6" t="n">
         <v>998003452</v>
       </c>
-      <c r="O34" s="13" t="s">
+      <c r="O34" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q34" s="13" t="n">
+      <c r="P34" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="12" t="n">
         <v>107</v>
       </c>
-      <c r="R34" s="13" t="s">
+      <c r="R34" s="12" t="s">
         <v>6</v>
       </c>
       <c r="S34" s="3" t="n">
@@ -4816,23 +4807,23 @@
       <c r="U34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="V34" s="13" t="n">
+      <c r="V34" s="12" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X34" s="13" t="s">
+      <c r="X34" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Y34" s="13" t="s">
+      <c r="Y34" s="12" t="s">
         <v>10</v>
       </c>
       <c r="Z34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AA34" s="13" t="s">
+      <c r="AA34" s="12" t="s">
         <v>12</v>
       </c>
       <c r="AB34" s="7" t="n">
@@ -4844,25 +4835,25 @@
       <c r="AD34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE34" s="13" t="s">
+      <c r="AE34" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AF34" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG34" s="13" t="s">
+      <c r="AG34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AH34" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI34" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ34" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK34" s="13" t="s">
+      <c r="AH34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK34" s="12" t="s">
         <v>16</v>
       </c>
       <c r="AL34" s="3" t="s">
@@ -4871,24 +4862,24 @@
       <c r="AM34" s="7" t="n">
         <v>43470</v>
       </c>
-      <c r="AN34" s="13" t="s">
+      <c r="AN34" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="9" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="C35" s="10" t="n">
+      <c r="B35" s="8" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="C35" s="9" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D35" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E35" s="11" t="n">
+      <c r="E35" s="10" t="n">
         <v>43448</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -4900,16 +4891,16 @@
       <c r="H35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I35" s="9" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="J35" s="12" t="n">
+      <c r="I35" s="8" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="J35" s="11" t="n">
         <v>136</v>
       </c>
-      <c r="K35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="9" t="s">
+      <c r="K35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -4918,16 +4909,16 @@
       <c r="N35" s="6" t="n">
         <v>998003452</v>
       </c>
-      <c r="O35" s="9" t="s">
+      <c r="O35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P35" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="9" t="n">
+      <c r="P35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="R35" s="9" t="s">
+      <c r="R35" s="8" t="s">
         <v>6</v>
       </c>
       <c r="S35" s="3" t="n">
@@ -4940,23 +4931,23 @@
       <c r="U35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="V35" s="9" t="n">
+      <c r="V35" s="8" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X35" s="9" t="s">
+      <c r="X35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Y35" s="9" t="s">
+      <c r="Y35" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Z35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA35" s="9" t="s">
+      <c r="AA35" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AB35" s="7" t="n">
@@ -4968,25 +4959,25 @@
       <c r="AD35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE35" s="9" t="s">
+      <c r="AE35" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AF35" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG35" s="9" t="s">
+      <c r="AG35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK35" s="9" t="s">
+      <c r="AH35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AL35" s="3" t="s">
@@ -4995,24 +4986,24 @@
       <c r="AM35" s="7" t="n">
         <v>43467</v>
       </c>
-      <c r="AN35" s="9" t="s">
+      <c r="AN35" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="9" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="C36" s="10" t="n">
+      <c r="B36" s="8" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="C36" s="9" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D36" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E36" s="11" t="n">
+      <c r="E36" s="10" t="n">
         <v>43448</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -5024,16 +5015,16 @@
       <c r="H36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="9" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="J36" s="12" t="n">
+      <c r="I36" s="8" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="J36" s="11" t="n">
         <v>137</v>
       </c>
-      <c r="K36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L36" s="9" t="s">
+      <c r="K36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L36" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M36" s="3" t="s">
@@ -5042,16 +5033,16 @@
       <c r="N36" s="6" t="n">
         <v>998003452</v>
       </c>
-      <c r="O36" s="9" t="s">
+      <c r="O36" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P36" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="9" t="n">
+      <c r="P36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="R36" s="9" t="s">
+      <c r="R36" s="8" t="s">
         <v>6</v>
       </c>
       <c r="S36" s="3" t="n">
@@ -5064,23 +5055,23 @@
       <c r="U36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="V36" s="9" t="n">
+      <c r="V36" s="8" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X36" s="9" t="s">
+      <c r="X36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Y36" s="9" t="s">
+      <c r="Y36" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Z36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA36" s="9" t="s">
+      <c r="AA36" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AB36" s="7" t="n">
@@ -5092,25 +5083,25 @@
       <c r="AD36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE36" s="9" t="s">
+      <c r="AE36" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AF36" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG36" s="9" t="s">
+      <c r="AG36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK36" s="9" t="s">
+      <c r="AH36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK36" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AL36" s="3" t="s">
@@ -5119,24 +5110,24 @@
       <c r="AM36" s="7" t="n">
         <v>43468</v>
       </c>
-      <c r="AN36" s="9" t="s">
+      <c r="AN36" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="9" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="C37" s="10" t="n">
+      <c r="B37" s="8" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="C37" s="9" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D37" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E37" s="11" t="n">
+      <c r="E37" s="10" t="n">
         <v>43448</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -5148,16 +5139,16 @@
       <c r="H37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I37" s="9" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="J37" s="12" t="n">
+      <c r="I37" s="8" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="J37" s="11" t="n">
         <v>138</v>
       </c>
-      <c r="K37" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L37" s="9" t="s">
+      <c r="K37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L37" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M37" s="3" t="s">
@@ -5166,16 +5157,16 @@
       <c r="N37" s="6" t="n">
         <v>998003452</v>
       </c>
-      <c r="O37" s="9" t="s">
+      <c r="O37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P37" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q37" s="9" t="n">
+      <c r="P37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="R37" s="9" t="s">
+      <c r="R37" s="8" t="s">
         <v>6</v>
       </c>
       <c r="S37" s="3" t="n">
@@ -5188,23 +5179,23 @@
       <c r="U37" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="V37" s="9" t="n">
+      <c r="V37" s="8" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X37" s="9" t="s">
+      <c r="X37" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Y37" s="9" t="s">
+      <c r="Y37" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Z37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA37" s="9" t="s">
+      <c r="AA37" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AB37" s="7" t="n">
@@ -5216,25 +5207,25 @@
       <c r="AD37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE37" s="9" t="s">
+      <c r="AE37" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AF37" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG37" s="9" t="s">
+      <c r="AG37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH37" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI37" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ37" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK37" s="9" t="s">
+      <c r="AH37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK37" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AL37" s="3" t="s">
@@ -5243,24 +5234,24 @@
       <c r="AM37" s="7" t="n">
         <v>43469</v>
       </c>
-      <c r="AN37" s="9" t="s">
+      <c r="AN37" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="9" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="C38" s="10" t="n">
+      <c r="B38" s="8" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="C38" s="9" t="n">
         <v>39400000000000</v>
       </c>
       <c r="D38" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E38" s="11" t="n">
+      <c r="E38" s="10" t="n">
         <v>43448</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -5272,16 +5263,16 @@
       <c r="H38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I38" s="9" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="J38" s="12" t="n">
+      <c r="I38" s="8" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="J38" s="11" t="n">
         <v>139</v>
       </c>
-      <c r="K38" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="9" t="s">
+      <c r="K38" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="3" t="s">
@@ -5290,16 +5281,16 @@
       <c r="N38" s="6" t="n">
         <v>998003452</v>
       </c>
-      <c r="O38" s="9" t="s">
+      <c r="O38" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P38" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q38" s="9" t="n">
+      <c r="P38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="R38" s="9" t="s">
+      <c r="R38" s="8" t="s">
         <v>6</v>
       </c>
       <c r="S38" s="3" t="n">
@@ -5312,23 +5303,23 @@
       <c r="U38" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="V38" s="9" t="n">
+      <c r="V38" s="8" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X38" s="9" t="s">
+      <c r="X38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Y38" s="9" t="s">
+      <c r="Y38" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Z38" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA38" s="9" t="s">
+      <c r="AA38" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AB38" s="7" t="n">
@@ -5340,25 +5331,25 @@
       <c r="AD38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE38" s="9" t="s">
+      <c r="AE38" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AF38" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG38" s="9" t="s">
+      <c r="AG38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK38" s="9" t="s">
+      <c r="AH38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK38" s="8" t="s">
         <v>16</v>
       </c>
       <c r="AL38" s="3" t="s">
@@ -5367,63 +5358,63 @@
       <c r="AM38" s="7" t="n">
         <v>43470</v>
       </c>
-      <c r="AN38" s="9" t="s">
+      <c r="AN38" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="17" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="C39" s="18" t="n">
+      <c r="B39" s="16" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="C39" s="17" t="n">
         <v>39400000000000</v>
       </c>
-      <c r="D39" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="19" t="n">
+      <c r="D39" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="18" t="n">
         <v>43448</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G39" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="H39" s="17" t="s">
+      <c r="G39" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I39" s="17" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="J39" s="12" t="n">
+      <c r="I39" s="16" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="J39" s="11" t="n">
         <v>140</v>
       </c>
-      <c r="K39" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L39" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M39" s="17" t="s">
+      <c r="K39" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39" s="16" t="s">
         <v>3</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>998003452</v>
       </c>
-      <c r="O39" s="17" t="s">
+      <c r="O39" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P39" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q39" s="17" t="n">
+      <c r="P39" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="16" t="n">
         <v>107</v>
       </c>
-      <c r="R39" s="17" t="s">
+      <c r="R39" s="16" t="s">
         <v>6</v>
       </c>
       <c r="S39" s="3" t="n">
@@ -5436,23 +5427,23 @@
       <c r="U39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V39" s="17" t="n">
+      <c r="V39" s="16" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W39" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="X39" s="17" t="s">
+      <c r="X39" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Y39" s="17" t="s">
+      <c r="Y39" s="16" t="s">
         <v>10</v>
       </c>
       <c r="Z39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA39" s="17" t="s">
+      <c r="AA39" s="16" t="s">
         <v>12</v>
       </c>
       <c r="AB39" s="7" t="n">
@@ -5464,90 +5455,90 @@
       <c r="AD39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE39" s="17" t="s">
+      <c r="AE39" s="16" t="s">
         <v>5</v>
       </c>
       <c r="AF39" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG39" s="17" t="s">
+      <c r="AG39" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AH39" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI39" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ39" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK39" s="17" t="s">
+      <c r="AH39" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI39" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ39" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK39" s="16" t="s">
         <v>16</v>
       </c>
       <c r="AL39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN39" s="17" t="s">
+      <c r="AM39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN39" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="17" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="C40" s="18" t="n">
+      <c r="B40" s="16" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="C40" s="17" t="n">
         <v>39400000000000</v>
       </c>
-      <c r="D40" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="19" t="n">
+      <c r="D40" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="18" t="n">
         <v>43448</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="H40" s="17" t="s">
+      <c r="G40" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I40" s="17" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="J40" s="12" t="n">
+      <c r="I40" s="16" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="J40" s="11" t="n">
         <v>141</v>
       </c>
-      <c r="K40" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L40" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M40" s="17" t="s">
+      <c r="K40" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M40" s="16" t="s">
         <v>3</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>998003452</v>
       </c>
-      <c r="O40" s="17" t="s">
+      <c r="O40" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P40" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q40" s="17" t="n">
+      <c r="P40" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="16" t="n">
         <v>107</v>
       </c>
-      <c r="R40" s="17" t="s">
+      <c r="R40" s="16" t="s">
         <v>6</v>
       </c>
       <c r="S40" s="3" t="n">
@@ -5560,23 +5551,23 @@
       <c r="U40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V40" s="17" t="n">
+      <c r="V40" s="16" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="X40" s="17" t="s">
+      <c r="X40" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Y40" s="17" t="s">
+      <c r="Y40" s="16" t="s">
         <v>10</v>
       </c>
       <c r="Z40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA40" s="17" t="s">
+      <c r="AA40" s="16" t="s">
         <v>12</v>
       </c>
       <c r="AB40" s="7" t="n">
@@ -5588,90 +5579,90 @@
       <c r="AD40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE40" s="17" t="s">
+      <c r="AE40" s="16" t="s">
         <v>5</v>
       </c>
       <c r="AF40" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="AG40" s="17" t="s">
+      <c r="AG40" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AH40" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI40" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ40" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK40" s="17" t="s">
+      <c r="AH40" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI40" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ40" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK40" s="16" t="s">
         <v>16</v>
       </c>
       <c r="AL40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN40" s="17" t="s">
+      <c r="AM40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN40" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="17" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="C41" s="18" t="n">
+      <c r="B41" s="16" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="C41" s="17" t="n">
         <v>39400000000000</v>
       </c>
-      <c r="D41" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="19" t="n">
+      <c r="D41" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="18" t="n">
         <v>43448</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="H41" s="17" t="s">
+      <c r="G41" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="17" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="J41" s="12" t="n">
+      <c r="I41" s="16" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="J41" s="11" t="n">
         <v>142</v>
       </c>
-      <c r="K41" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="17" t="s">
+      <c r="K41" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="16" t="s">
         <v>3</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>998003452</v>
       </c>
-      <c r="O41" s="17" t="s">
+      <c r="O41" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="17" t="n">
+      <c r="P41" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="16" t="n">
         <v>107</v>
       </c>
-      <c r="R41" s="17" t="s">
+      <c r="R41" s="16" t="s">
         <v>6</v>
       </c>
       <c r="S41" s="3" t="n">
@@ -5684,23 +5675,23 @@
       <c r="U41" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V41" s="17" t="n">
+      <c r="V41" s="16" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="X41" s="17" t="s">
+      <c r="X41" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Y41" s="17" t="s">
+      <c r="Y41" s="16" t="s">
         <v>10</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA41" s="17" t="s">
+      <c r="AA41" s="16" t="s">
         <v>12</v>
       </c>
       <c r="AB41" s="7" t="n">
@@ -5712,90 +5703,90 @@
       <c r="AD41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE41" s="17" t="s">
+      <c r="AE41" s="16" t="s">
         <v>5</v>
       </c>
       <c r="AF41" s="7" t="n">
         <v>43465</v>
       </c>
-      <c r="AG41" s="17" t="s">
+      <c r="AG41" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AH41" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI41" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ41" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK41" s="17" t="s">
+      <c r="AH41" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI41" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ41" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK41" s="16" t="s">
         <v>16</v>
       </c>
       <c r="AL41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN41" s="17" t="s">
+      <c r="AM41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN41" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="17" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="C42" s="18" t="n">
+      <c r="B42" s="16" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="C42" s="17" t="n">
         <v>39400000000000</v>
       </c>
-      <c r="D42" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="19" t="n">
+      <c r="D42" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="18" t="n">
         <v>43448</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G42" s="17" t="n">
+      <c r="G42" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="H42" s="17" t="s">
+      <c r="H42" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I42" s="17" t="n">
-        <v>998003452</v>
-      </c>
-      <c r="J42" s="12" t="n">
+      <c r="I42" s="16" t="n">
+        <v>998003452</v>
+      </c>
+      <c r="J42" s="11" t="n">
         <v>143</v>
       </c>
-      <c r="K42" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="17" t="s">
+      <c r="K42" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="16" t="s">
         <v>3</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>998003452</v>
       </c>
-      <c r="O42" s="17" t="s">
+      <c r="O42" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="17" t="n">
+      <c r="P42" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="16" t="n">
         <v>107</v>
       </c>
-      <c r="R42" s="17" t="s">
+      <c r="R42" s="16" t="s">
         <v>6</v>
       </c>
       <c r="S42" s="3" t="n">
@@ -5808,23 +5799,23 @@
       <c r="U42" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V42" s="17" t="n">
+      <c r="V42" s="16" t="n">
         <f aca="false">0</f>
         <v>0</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="X42" s="17" t="s">
+      <c r="X42" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Y42" s="17" t="s">
+      <c r="Y42" s="16" t="s">
         <v>10</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA42" s="17" t="s">
+      <c r="AA42" s="16" t="s">
         <v>12</v>
       </c>
       <c r="AB42" s="7" t="n">
@@ -5836,34 +5827,34 @@
       <c r="AD42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE42" s="17" t="s">
+      <c r="AE42" s="16" t="s">
         <v>5</v>
       </c>
       <c r="AF42" s="7" t="n">
         <v>43465</v>
       </c>
-      <c r="AG42" s="17" t="s">
+      <c r="AG42" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AH42" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI42" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ42" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK42" s="17" t="s">
+      <c r="AH42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK42" s="16" t="s">
         <v>16</v>
       </c>
       <c r="AL42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AM42" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN42" s="17" t="s">
+      <c r="AM42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN42" s="16" t="s">
         <v>16</v>
       </c>
     </row>
